--- a/results/producao-tecnica.xlsx
+++ b/results/producao-tecnica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -666,16 +666,48 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>Reginaldo Fidelis</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Rogerio Tondato</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>Willian Massami Watanabe</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
         <v>2</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D17" t="n">
         <v>0</v>
       </c>
     </row>
